--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Modification du main afin qu'il soit posible d'appeler plusieurs cadrans </t>
   </si>
   <si>
-    <t>Modification des différents programmes afin que tout les cadrans s'ouvre dans la même fenêtre</t>
-  </si>
-  <si>
     <t>Recherche de documentations/idées sur Internet</t>
   </si>
   <si>
@@ -57,12 +54,15 @@
   </si>
   <si>
     <t>Ajout de commentaires dans le code</t>
+  </si>
+  <si>
+    <t>Modification des différents programmes afin que tous les cadrans s'ouvrent dans la même fenêtre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,6 +124,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,14 +401,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="86" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,16 +425,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -440,85 +443,85 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Modification des différents programmes afin que tous les cadrans s'ouvrent dans la même fenêtre</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -408,7 +411,7 @@
     <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +433,12 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -439,8 +446,12 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -448,8 +459,12 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,8 +472,12 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,8 +485,12 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,8 +498,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>sprint 2</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1/2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code permettant de choisir entre une montre au format 12h ou 24 ( am/pm) </t>
   </si>
 </sst>
 </file>
@@ -111,13 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -424,12 +439,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -439,10 +456,14 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -452,25 +473,33 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -478,82 +507,109 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/GitProjet/ProjectWatch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Modification des différents programmes afin que tous les cadrans s'ouvrent dans la même fenêtre</t>
   </si>
   <si>
-    <t>sprint 2</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>1/2h</t>
   </si>
   <si>
-    <t xml:space="preserve">Code permettant de choisir entre une montre au format 12h ou 24 ( am/pm) </t>
+    <t>Sprint 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,20 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="86" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -454,13 +451,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -471,145 +468,128 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Taskliste2.xlsx
+++ b/Documentation/Taskliste2.xlsx
@@ -100,15 +100,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,20 +122,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,183 +436,183 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
